--- a/src/test/resources/read_write/xlsx/inputFile.xlsx
+++ b/src/test/resources/read_write/xlsx/inputFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Russian1</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>1,3</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>№ lesson</t>
+  </si>
+  <si>
+    <t>Day of the week</t>
+  </si>
+  <si>
+    <t>Class</t>
   </si>
 </sst>
 </file>
@@ -93,9 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -410,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,24 +436,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -451,10 +464,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -465,10 +478,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -479,10 +492,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -493,15 +506,29 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
